--- a/biology/Biochimie/Allan_Wilson/Allan_Wilson.xlsx
+++ b/biology/Biochimie/Allan_Wilson/Allan_Wilson.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Allan Charles Wilson, né le 18 octobre 1934 en Nouvelle-Zélande et mort le 21 juillet 1991 à Seattle, est un biochimiste néo-zélandais qui a accompli sa carrière aux États-Unis. Il a été professeur de biochimie à l'université de Californie à Berkeley. Il fut l'un des pionniers dans l'utilisation des approches moléculaires pour reconstruire les phylogénies, notamment dans le domaine de l'histoire évolutive de la lignée humaine. Le travail de Wilson a suscité beaucoup d'intérêt dans les années 1970 et 1980, tant auprès du monde académique que du grand public. Il est le seul Néo-Zélandais à avoir remporté la bourse MacArthur[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Allan Charles Wilson, né le 18 octobre 1934 en Nouvelle-Zélande et mort le 21 juillet 1991 à Seattle, est un biochimiste néo-zélandais qui a accompli sa carrière aux États-Unis. Il a été professeur de biochimie à l'université de Californie à Berkeley. Il fut l'un des pionniers dans l'utilisation des approches moléculaires pour reconstruire les phylogénies, notamment dans le domaine de l'histoire évolutive de la lignée humaine. Le travail de Wilson a suscité beaucoup d'intérêt dans les années 1970 et 1980, tant auprès du monde académique que du grand public. Il est le seul Néo-Zélandais à avoir remporté la bourse MacArthur.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Formation</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Allan Wilson a obtenu son doctorat (PhD) en 1961 de l'université de Californie à Berkeley, avec une thèse sur la régulation de la biosynthèse des flavines chez les bactéries[2],[3].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Allan Wilson a obtenu son doctorat (PhD) en 1961 de l'université de Californie à Berkeley, avec une thèse sur la régulation de la biosynthèse des flavines chez les bactéries,.
 </t>
         </is>
       </c>
@@ -542,11 +556,13 @@
           <t>Travaux</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Allan Wilson est notamment connu pour la démonstration expérimentale du concept de l'horloge moléculaire (avec son doctorant Vincent Sarich (en)), postulé auparavant par Linus Pauling et Émile Zuckerkandl. Il a révolutionné l'approche phylogénétique des hominidés actuels par ses recherches en biologie moléculaire.
-Allan Wilson a publié en 1987 avec ses doctorants Rebecca L. Cann (en) et Mark Stoneking (en) un article célèbre d'anthropologie moléculaire présentant la théorie de l'Ève mitochondriale, laquelle a représenté la première validation génétique de la théorie de l'Origine africaine de l'Homme moderne[4],[5].
-Son idée de l'« impulsion culturelle » a été reprise par Kevin Laland, professeur de biologie évolutive et du comportement à l'université de St Andrews, en Écosse[6].  
+Allan Wilson a publié en 1987 avec ses doctorants Rebecca L. Cann (en) et Mark Stoneking (en) un article célèbre d'anthropologie moléculaire présentant la théorie de l'Ève mitochondriale, laquelle a représenté la première validation génétique de la théorie de l'Origine africaine de l'Homme moderne,.
+Son idée de l'« impulsion culturelle » a été reprise par Kevin Laland, professeur de biologie évolutive et du comportement à l'université de St Andrews, en Écosse.  
 </t>
         </is>
       </c>
@@ -575,7 +591,9 @@
           <t>Activité éditoriale</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Éditeur associé du Journal of Molecular Evolution</t>
         </is>
@@ -605,7 +623,9 @@
           <t>Organismes et associations</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Membre de la Royal Society of London
 Membre de l'Académie américaine des arts et des sciences
@@ -638,7 +658,9 @@
           <t>Récompenses</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t>Bourse Guggenheim en 1972
 Bourse MacArthur en 1986
@@ -670,7 +692,9 @@
           <t>Publications</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
         <is>
           <t>(en) Rebecca L. Cann, Mark Stoneking et Allan Wilson, « Mitochondrial DNA and human evolution », Nature, vol. 325, no 6099,‎ 1987, p. 31–36 (PMID 3025745, DOI 10.1038/325031a0, Bibcode 1987Natur.325...31C, S2CID 4285418)</t>
         </is>
